--- a/data/correlation/月頻kicks內外部資料.xlsx
+++ b/data/correlation/月頻kicks內外部資料.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,11 @@
           <t>前四月文章負向比例</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>當期月份_int</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,9 @@
       <c r="R2">
         <v>0.1098901098901099</v>
       </c>
+      <c r="S2">
+        <v>202103</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +572,9 @@
       <c r="R3">
         <v>0.140495867768595</v>
       </c>
+      <c r="S3">
+        <v>202104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -622,6 +633,9 @@
       <c r="R4">
         <v>0.1764705882352941</v>
       </c>
+      <c r="S4">
+        <v>202105</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,6 +694,9 @@
       <c r="R5">
         <v>0.2209302325581395</v>
       </c>
+      <c r="S5">
+        <v>202106</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -738,6 +755,9 @@
       <c r="R6">
         <v>0.2297297297297297</v>
       </c>
+      <c r="S6">
+        <v>202107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -796,6 +816,9 @@
       <c r="R7">
         <v>0.1917808219178082</v>
       </c>
+      <c r="S7">
+        <v>202108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -854,6 +877,9 @@
       <c r="R8">
         <v>0.2125</v>
       </c>
+      <c r="S8">
+        <v>202109</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -912,6 +938,9 @@
       <c r="R9">
         <v>0.1714285714285714</v>
       </c>
+      <c r="S9">
+        <v>202110</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -970,6 +999,9 @@
       <c r="R10">
         <v>0.16</v>
       </c>
+      <c r="S10">
+        <v>202111</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1028,6 +1060,9 @@
       <c r="R11">
         <v>0.171875</v>
       </c>
+      <c r="S11">
+        <v>202112</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1086,6 +1121,9 @@
       <c r="R12">
         <v>0.1481481481481481</v>
       </c>
+      <c r="S12">
+        <v>202201</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1144,6 +1182,9 @@
       <c r="R13">
         <v>0.1889763779527559</v>
       </c>
+      <c r="S13">
+        <v>202202</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1202,6 +1243,9 @@
       <c r="R14">
         <v>0.1932773109243698</v>
       </c>
+      <c r="S14">
+        <v>202203</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1260,6 +1304,9 @@
       <c r="R15">
         <v>0.1785714285714286</v>
       </c>
+      <c r="S15">
+        <v>202204</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1318,6 +1365,9 @@
       <c r="R16">
         <v>0.1764705882352941</v>
       </c>
+      <c r="S16">
+        <v>202205</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1376,6 +1426,9 @@
       <c r="R17">
         <v>0.1153846153846154</v>
       </c>
+      <c r="S17">
+        <v>202206</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1434,6 +1487,9 @@
       <c r="R18">
         <v>0.1166666666666667</v>
       </c>
+      <c r="S18">
+        <v>202207</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1492,6 +1548,9 @@
       <c r="R19">
         <v>0.09448818897637795</v>
       </c>
+      <c r="S19">
+        <v>202208</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1550,6 +1609,9 @@
       <c r="R20">
         <v>0.08208955223880597</v>
       </c>
+      <c r="S20">
+        <v>202209</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1608,6 +1670,9 @@
       <c r="R21">
         <v>0.1027397260273973</v>
       </c>
+      <c r="S21">
+        <v>202210</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1666,6 +1731,9 @@
       <c r="R22">
         <v>0.1338028169014084</v>
       </c>
+      <c r="S22">
+        <v>202211</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1724,6 +1792,9 @@
       <c r="R23">
         <v>0.1700680272108843</v>
       </c>
+      <c r="S23">
+        <v>202212</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1781,6 +1852,9 @@
       </c>
       <c r="R24">
         <v>0.1836734693877551</v>
+      </c>
+      <c r="S24">
+        <v>202301</v>
       </c>
     </row>
   </sheetData>
